--- a/biology/Botanique/Diaphananthe_curvata/Diaphananthe_curvata.xlsx
+++ b/biology/Botanique/Diaphananthe_curvata/Diaphananthe_curvata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaphananthe curvata (Rolfe) Summerh. est une espèce de plantes d'Afrique tropicale de la famille des Orchidées et du genre Diaphananthe.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Diaphananthe curvata (Rolfe) Summerh. subsp. papyrifolia Stévart a été découverte au Cameroun, dans la réserve du Dja, mais aussi au Gabon et en Guinée équatoriale (Région continentale[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Diaphananthe curvata (Rolfe) Summerh. subsp. papyrifolia Stévart a été découverte au Cameroun, dans la réserve du Dja, mais aussi au Gabon et en Guinée équatoriale (Région continentale).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t xml:space="preserve">Description </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante épiphyte (des plantes qui poussent en se servant d'autres plantes comme support. Il ne s'agit pas de plantes parasites, car elles ne prélèvent pas de nourriture de leur hôte) à hauteur d’homme sur le tronc en forêt dense humide, saxicole ou marécageuse. Les feuilles sont nettement fines à nervure centrale proéminente et les fleurs sont verdâtres à jaunâtres.
 Elle est également retrouvée dans d’anciennes forêts secondaires de basse altitude dans le manteau arbustif des inselbergs à 2 ou 3 m de hauteur. Leur distribution altitudinale est comprise de 350 à 750 m.
